--- a/DataInfo/Students.xlsx
+++ b/DataInfo/Students.xlsx
@@ -491,7 +491,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class_name</t>
+    <t>class_grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -831,7 +831,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/DataInfo/Students.xlsx
+++ b/DataInfo/Students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="129">
   <si>
     <t>student_id</t>
   </si>
@@ -67,22 +67,6 @@
     <t>李雨键</t>
   </si>
   <si>
-    <t>2016级网络工程班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016级网络工程班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016级网络工程班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016级网络工程班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,15 +147,6 @@
     <t>陈若晖</t>
   </si>
   <si>
-    <t>2016级信息安全班</t>
-  </si>
-  <si>
-    <t>2017级信息安全班</t>
-  </si>
-  <si>
-    <t>2018级信息安全班</t>
-  </si>
-  <si>
     <t>crh@edu.scut.com</t>
   </si>
   <si>
@@ -242,9 +217,6 @@
     <t>邓勇达</t>
   </si>
   <si>
-    <t>2016级计算机联合班</t>
-  </si>
-  <si>
     <t>dyd@edu.scut.com</t>
   </si>
   <si>
@@ -286,22 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016级计算机联合班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016级计算机联合班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016级计算机联合班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016级计算机联合班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ljy@edu.scut.com</t>
   </si>
   <si>
@@ -392,18 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015级信息安全班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014级信息安全班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017级信息安全班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>201730541111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,6 +436,24 @@
   </si>
   <si>
     <t>class_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络工程班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息安全班</t>
+  </si>
+  <si>
+    <t>信息安全班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机联合班</t>
+  </si>
+  <si>
+    <t>计算机联合班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +782,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -855,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -884,16 +846,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>111111</v>
@@ -919,28 +881,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2">
+        <v>111111</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="2">
-        <v>111111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1">
         <v>32444</v>
@@ -949,33 +911,33 @@
         <v>17235742344</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2">
         <v>111111</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1">
         <v>31274</v>
@@ -984,33 +946,33 @@
         <v>18945673735</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2">
+        <v>111111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="2">
-        <v>111111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>30756</v>
@@ -1019,33 +981,33 @@
         <v>17963782484</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2">
         <v>111111</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1">
         <v>32472</v>
@@ -1054,33 +1016,33 @@
         <v>15262357264</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>124</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2">
         <v>111111</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1">
         <v>31414</v>
@@ -1089,27 +1051,27 @@
         <v>18593695297</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2">
         <v>111111</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -1124,33 +1086,33 @@
         <v>15583946736</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2">
         <v>111111</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1">
         <v>32409</v>
@@ -1159,27 +1121,27 @@
         <v>17235742344</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2">
         <v>111111</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1194,33 +1156,33 @@
         <v>17235742344</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2">
         <v>111111</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1">
         <v>30825</v>
@@ -1229,33 +1191,33 @@
         <v>17235742344</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2">
         <v>111111</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1">
         <v>32251</v>
@@ -1264,21 +1226,21 @@
         <v>17235742344</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2">
         <v>111111</v>
@@ -1299,33 +1261,33 @@
         <v>17235742344</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2">
         <v>111111</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1">
         <v>32184</v>
@@ -1334,33 +1296,33 @@
         <v>17235742344</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2">
         <v>111111</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1">
         <v>31468</v>
@@ -1369,33 +1331,33 @@
         <v>17235742344</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2">
         <v>111111</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1">
         <v>31850</v>
@@ -1404,21 +1366,21 @@
         <v>17235742344</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2">
         <v>111111</v>
@@ -1439,33 +1401,33 @@
         <v>17235742344</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E18" s="2">
         <v>111111</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I18" s="1">
         <v>31382</v>
@@ -1474,21 +1436,21 @@
         <v>17235742344</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E19" s="2">
         <v>111111</v>
@@ -1509,33 +1471,33 @@
         <v>17235742344</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E20" s="2">
         <v>111111</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1">
         <v>31051</v>
@@ -1544,33 +1506,33 @@
         <v>17235742344</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E21" s="2">
         <v>111111</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I21" s="1">
         <v>30895</v>
@@ -1579,33 +1541,33 @@
         <v>17235742344</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E22" s="2">
         <v>111111</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I22" s="1">
         <v>31335</v>
@@ -1614,21 +1576,21 @@
         <v>17235742344</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E23" s="2">
         <v>111111</v>
@@ -1649,27 +1611,27 @@
         <v>17235742344</v>
       </c>
       <c r="K23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2">
         <v>111111</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1684,33 +1646,33 @@
         <v>17235742344</v>
       </c>
       <c r="K24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E25" s="2">
         <v>111111</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I25" s="1">
         <v>31168</v>
@@ -1719,33 +1681,33 @@
         <v>17235742344</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E26" s="2">
         <v>111111</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I26" s="1">
         <v>30806</v>
@@ -1754,33 +1716,33 @@
         <v>17235742344</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E27" s="2">
         <v>111111</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I27" s="1">
         <v>31503</v>
@@ -1789,21 +1751,21 @@
         <v>17235742344</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2">
         <v>111111</v>
@@ -1824,33 +1786,33 @@
         <v>17235742344</v>
       </c>
       <c r="K28" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2">
         <v>111111</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I29" s="1">
         <v>31072</v>
@@ -1859,33 +1821,33 @@
         <v>17235742344</v>
       </c>
       <c r="K29" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2">
         <v>111111</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I30" s="1">
         <v>30750</v>
@@ -1894,33 +1856,33 @@
         <v>17235742344</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2">
+        <v>111111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
         <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="2">
-        <v>111111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" t="s">
-        <v>96</v>
       </c>
       <c r="I31" s="1">
         <v>32028</v>
@@ -1929,7 +1891,7 @@
         <v>17235742344</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11">
